--- a/ormweb/static/src/assets/SampleTemplate/RCSA_Template.xlsx
+++ b/ormweb/static/src/assets/SampleTemplate/RCSA_Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Keerthana S\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sudarshan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51F0A399-77F8-4EFC-BA28-319858248035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E63C85D-EE72-4AAC-B153-1D3C65A41EE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B2A60F46-44E1-4BB4-BBA9-659FBB915E86}"/>
+    <workbookView xWindow="2200" yWindow="2200" windowWidth="28800" windowHeight="15450" xr2:uid="{B2A60F46-44E1-4BB4-BBA9-659FBB915E86}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,9 +41,6 @@
     <t>#</t>
   </si>
   <si>
-    <t>Group *</t>
-  </si>
-  <si>
     <t>Auditable Unit*</t>
   </si>
   <si>
@@ -60,6 +57,9 @@
   </si>
   <si>
     <t>Inherent Impact Rating*</t>
+  </si>
+  <si>
+    <t>Group*</t>
   </si>
 </sst>
 </file>
@@ -211,9 +211,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -251,7 +251,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -357,7 +357,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -499,7 +499,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -510,47 +510,47 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="16.5546875" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16.54296875" customWidth="1"/>
+    <col min="3" max="3" width="16.6328125" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="19.88671875" customWidth="1"/>
-    <col min="6" max="6" width="40.88671875" customWidth="1"/>
+    <col min="5" max="5" width="19.90625" customWidth="1"/>
+    <col min="6" max="6" width="40.90625" customWidth="1"/>
     <col min="7" max="7" width="32" customWidth="1"/>
     <col min="8" max="8" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="31" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -560,7 +560,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>

--- a/ormweb/static/src/assets/SampleTemplate/RCSA_Template.xlsx
+++ b/ormweb/static/src/assets/SampleTemplate/RCSA_Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sudarshan\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Keerthana S\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E63C85D-EE72-4AAC-B153-1D3C65A41EE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51F0A399-77F8-4EFC-BA28-319858248035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2200" yWindow="2200" windowWidth="28800" windowHeight="15450" xr2:uid="{B2A60F46-44E1-4BB4-BBA9-659FBB915E86}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B2A60F46-44E1-4BB4-BBA9-659FBB915E86}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,6 +41,9 @@
     <t>#</t>
   </si>
   <si>
+    <t>Group *</t>
+  </si>
+  <si>
     <t>Auditable Unit*</t>
   </si>
   <si>
@@ -57,9 +60,6 @@
   </si>
   <si>
     <t>Inherent Impact Rating*</t>
-  </si>
-  <si>
-    <t>Group*</t>
   </si>
 </sst>
 </file>
@@ -211,9 +211,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -251,7 +251,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -357,7 +357,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -499,7 +499,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -510,47 +510,47 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.54296875" customWidth="1"/>
-    <col min="3" max="3" width="16.6328125" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="19.90625" customWidth="1"/>
-    <col min="6" max="6" width="40.90625" customWidth="1"/>
+    <col min="5" max="5" width="19.88671875" customWidth="1"/>
+    <col min="6" max="6" width="40.88671875" customWidth="1"/>
     <col min="7" max="7" width="32" customWidth="1"/>
     <col min="8" max="8" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="31" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
     </row>
-    <row r="2" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -560,7 +560,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
